--- a/code/output/HSS Pre-Registration 2021-22 - Students Allocation.xlsx
+++ b/code/output/HSS Pre-Registration 2021-22 - Students Allocation.xlsx
@@ -449,7 +449,11 @@
           <t>Pushkar Mujumdar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -466,7 +470,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -500,7 +504,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HS 645</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -538,7 +542,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 223</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -593,7 +597,11 @@
           <t xml:space="preserve">Harsh Vinayak </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -631,7 +639,11 @@
           <t>Aditya Shekhar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -684,11 +696,7 @@
           <t>Deepak Patel</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -703,11 +711,7 @@
           <t xml:space="preserve">Hiten Ferwani </t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -741,11 +745,7 @@
           <t>Aditya Pusalkar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -857,7 +857,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -927,11 +927,7 @@
           <t>Aishna Agrawal</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1008,11 +1004,7 @@
           <t>HS 104</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>HS 223</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1045,7 +1037,11 @@
           <t>Aastha Jivrajani</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1060,7 +1056,11 @@
           <t>Shridhar Pawar</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HS 512</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1128,7 +1128,11 @@
           <t>Shubham Pandit</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>HS 591</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1164,14 +1168,10 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HS 211</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
           <t>HS 223</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1208,11 +1208,7 @@
           <t>Aman Sharma</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1250,11 +1246,7 @@
           <t>Priyam Tongia</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1383,11 +1375,7 @@
           <t>Kalyan Reddy S</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>HS 211</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1421,7 +1409,11 @@
           <t>Yash Meshram</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>HS 591</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -1478,7 +1470,11 @@
           <t>Siddharth Soni</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -1533,7 +1529,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1607,7 +1603,11 @@
           <t>Shraddha Matkar</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -1660,7 +1660,11 @@
           <t>Achal Kanojia</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -1734,7 +1738,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 645</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -1787,7 +1791,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HS 425</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -1861,7 +1865,11 @@
           <t>Sameer Khan Mehar</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -2005,7 +2013,11 @@
           <t>Vartika Mathur</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -2035,11 +2047,7 @@
           <t>Rithik Maligi</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>HS 211</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -2075,7 +2083,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HS 211</t>
+          <t>HS 223</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -2111,11 +2119,7 @@
           <t>Shreyansh Chourasiya</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -2335,11 +2339,7 @@
           <t>Md Amir Shohail</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -2354,11 +2354,7 @@
           <t xml:space="preserve">Deependra Dwivedi </t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -2373,11 +2369,7 @@
           <t>GAURAV BHARDWAJ</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -2411,7 +2403,11 @@
           <t>MONIKA SAINI</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>HS 421</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -2471,11 +2467,7 @@
           <t>Ajay Karwasara</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -2533,11 +2525,7 @@
           <t>HS 510</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>HS 647</t>
-        </is>
-      </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2608,11 +2596,7 @@
           <t>Yash Rathore</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -2627,7 +2611,11 @@
           <t>Rajat Kumar Mishra</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -2699,11 +2687,7 @@
           <t>Siddhu budithi</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>HS 211</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -2775,11 +2759,7 @@
           <t>PABITRA MANDAL</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -2849,7 +2829,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>IN 304</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -2870,11 +2850,7 @@
           <t>Ayush Agrawal</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -2891,7 +2867,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HS 425</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -2910,7 +2886,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 425</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -2952,7 +2928,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HS 425</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -3024,7 +3000,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HS 645</t>
+          <t>HS 512</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -3089,7 +3065,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HS 112</t>
+          <t>HS 223</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3186,11 +3162,7 @@
           <t>Ahana Ghosh</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>HS 211</t>
-        </is>
-      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -3270,7 +3242,11 @@
           <t>Dhruv Darda</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -3287,7 +3263,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HS 112</t>
+          <t>HS 645</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -3344,7 +3320,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>HS 507</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -3490,11 +3466,7 @@
           <t>Mukesh Gupta</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -3509,7 +3481,11 @@
           <t>Dinesh Kumar Sharma</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -3524,11 +3500,7 @@
           <t>Suman Kumar</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -3545,7 +3517,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>HS 425</t>
+          <t>HS 512</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -3621,7 +3593,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>HS 647</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -3695,7 +3667,11 @@
           <t>BHANUPRATAP SINGH RAJAWAT</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -3729,7 +3705,11 @@
           <t>Swati Verma</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
@@ -3765,7 +3745,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HS 510</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -3894,7 +3874,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HS 211</t>
+          <t>HS 425</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -3913,7 +3893,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -3955,12 +3935,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
+          <t>HS 591</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
           <t>HS 507</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>HS 519</t>
         </is>
       </c>
     </row>
@@ -3976,11 +3956,7 @@
           <t>Borase Nikhil Ravindrakumar</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
@@ -3997,12 +3973,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>HS 507</t>
+          <t>HS 645</t>
         </is>
       </c>
     </row>
@@ -4018,11 +3994,7 @@
           <t>Shashi</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>HS 211</t>
-        </is>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -4037,11 +4009,7 @@
           <t>vijay kumar regar</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
@@ -4096,7 +4064,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>HS 507</t>
+          <t>HS 211</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -4134,7 +4102,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -4250,7 +4218,11 @@
           <t>Lavanya Naik</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
@@ -4301,7 +4273,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 425</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -4339,7 +4311,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -4434,7 +4406,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 425</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -4453,7 +4425,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -4472,7 +4444,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -4489,7 +4461,11 @@
           <t>Eshan Gujarathi</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
@@ -4506,7 +4482,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -4565,11 +4541,7 @@
           <t>Prateek Kumar Jha</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
@@ -4699,11 +4671,7 @@
           <t>HS 421</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>HS 223</t>
-        </is>
-      </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -4717,11 +4685,7 @@
           <t xml:space="preserve">Shubham </t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
@@ -4770,11 +4734,7 @@
           <t>Srujan Pandya</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
@@ -4890,7 +4850,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>HS 112</t>
+          <t>HS 645</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -4907,7 +4867,11 @@
           <t>Pallav Jain</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
@@ -4922,11 +4886,7 @@
           <t>Paras Nigam</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
     </row>
     <row r="245">
@@ -5040,7 +5000,11 @@
           <t>Sachin Yadav</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>HS 425</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -5260,11 +5224,7 @@
           <t>SUDAMA KUMAR MAHTO</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
@@ -5322,7 +5282,11 @@
           <t>HS 104</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>HS 223</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5376,7 +5340,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -5471,7 +5435,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>HS 510</t>
+          <t>HS 211</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -5505,14 +5469,10 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>HS 591</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
           <t>HS 507</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5528,14 +5488,10 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>HS 112</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
           <t>HS 507</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5551,7 +5507,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -5570,7 +5526,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>HS 507</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -5589,7 +5545,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -5608,7 +5564,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>HS 112</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -5627,7 +5583,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -5665,12 +5621,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>HS 507</t>
+          <t>HS 517</t>
         </is>
       </c>
     </row>
@@ -5710,11 +5666,7 @@
           <t>HS 421</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>HS 223</t>
-        </is>
-      </c>
+      <c r="E285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -5728,7 +5680,11 @@
           <t xml:space="preserve">Rishabh Srivastava </t>
         </is>
       </c>
-      <c r="D286" t="inlineStr"/>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -5745,7 +5701,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>HS 507</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -5838,7 +5794,11 @@
           <t>Shivam Sahni</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
@@ -5929,11 +5889,7 @@
           <t>Sourav Yadav</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -5950,7 +5906,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -5967,7 +5923,11 @@
           <t>Somesh Pratap Singh</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
@@ -5984,7 +5944,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>HS 425</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -6058,7 +6018,11 @@
           <t xml:space="preserve">Deependra kumar rajoria </t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
@@ -6075,7 +6039,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>HS 211</t>
+          <t>HS 223</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -6113,7 +6077,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>HS 223</t>
+          <t>HS 211</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -6202,7 +6166,11 @@
           <t>Nikhil Yadav</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>HS 104</t>
+        </is>
+      </c>
       <c r="E312" t="inlineStr"/>
     </row>
     <row r="313">
@@ -6255,7 +6223,11 @@
           <t>Praveen Venkatesh</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E315" t="inlineStr"/>
     </row>
     <row r="316">
@@ -6289,11 +6261,7 @@
           <t>ANU KUMARI</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>HS 104</t>
-        </is>
-      </c>
+      <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
     </row>
     <row r="318">
@@ -6308,11 +6276,7 @@
           <t>Dave Hari Manish</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -6352,7 +6316,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E320" t="inlineStr"/>
@@ -6409,7 +6373,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 223</t>
         </is>
       </c>
       <c r="E323" t="inlineStr"/>
@@ -6466,7 +6430,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>HS 211</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
@@ -6546,7 +6510,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -6603,7 +6567,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>HS 112</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -6622,7 +6586,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -6639,7 +6603,11 @@
           <t>Varun Barala</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E335" t="inlineStr"/>
     </row>
     <row r="336">
@@ -6656,7 +6624,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>HS 517</t>
+          <t>HS 512</t>
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
@@ -6675,7 +6643,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>HS 211</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -6711,11 +6679,7 @@
           <t>DASARI SANJUKTA</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr"/>
     </row>
     <row r="340">
@@ -6730,11 +6694,7 @@
           <t>Rahul Patel</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr"/>
     </row>
     <row r="341">
@@ -6768,11 +6728,7 @@
           <t xml:space="preserve">Shubham Saurabh </t>
         </is>
       </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr"/>
     </row>
     <row r="343">
@@ -6802,7 +6758,11 @@
           <t>Vishwaraj Gohil</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>HS 425</t>
+        </is>
+      </c>
       <c r="E344" t="inlineStr"/>
     </row>
     <row r="345">
@@ -6817,7 +6777,11 @@
           <t>Divyansh Chaturvedi</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr"/>
     </row>
     <row r="346">
@@ -6872,7 +6836,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>HS 645</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -6929,14 +6893,10 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>HS 111</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
           <t>HS 647</t>
         </is>
       </c>
+      <c r="E351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -6971,7 +6931,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>HS 512</t>
+          <t>HS 645</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
@@ -6990,7 +6950,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 211</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -7106,7 +7066,11 @@
           <t>Harshil Purohit</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr"/>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E360" t="inlineStr"/>
     </row>
     <row r="361">
@@ -7161,7 +7125,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
@@ -7197,11 +7161,7 @@
           <t>Neelam painuly</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>HS 112</t>
-        </is>
-      </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -7218,7 +7178,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -7277,7 +7237,11 @@
           <t>Pratham Panchal</t>
         </is>
       </c>
-      <c r="D369" t="inlineStr"/>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E369" t="inlineStr"/>
     </row>
     <row r="370">
@@ -7330,7 +7294,11 @@
           <t>Rohan Shirodkar</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr"/>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E372" t="inlineStr"/>
     </row>
     <row r="373">
@@ -7345,7 +7313,11 @@
           <t>Rachit Shrimal</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr"/>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E373" t="inlineStr"/>
     </row>
     <row r="374">
@@ -7362,7 +7334,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>HS 223</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
@@ -7417,7 +7389,11 @@
           <t>Shivasankaran V P</t>
         </is>
       </c>
-      <c r="D377" t="inlineStr"/>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E377" t="inlineStr"/>
     </row>
     <row r="378">
@@ -7451,11 +7427,7 @@
           <t>Tejendra Patel</t>
         </is>
       </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>HS 211</t>
-        </is>
-      </c>
+      <c r="D379" t="inlineStr"/>
       <c r="E379" t="inlineStr"/>
     </row>
     <row r="380">
@@ -7470,7 +7442,11 @@
           <t>Aryan Shah</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr"/>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E380" t="inlineStr"/>
     </row>
     <row r="381">
@@ -7504,11 +7480,7 @@
           <t>Durgesh Patil</t>
         </is>
       </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>IN 304</t>
-        </is>
-      </c>
+      <c r="D382" t="inlineStr"/>
       <c r="E382" t="inlineStr"/>
     </row>
     <row r="383">
@@ -7523,11 +7495,7 @@
           <t>YATHARTH NILESH VAKIL</t>
         </is>
       </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr"/>
     </row>
     <row r="384">
@@ -7614,11 +7582,7 @@
           <t>Shubham Kewat</t>
         </is>
       </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>HS 111</t>
-        </is>
-      </c>
+      <c r="D388" t="inlineStr"/>
       <c r="E388" t="inlineStr"/>
     </row>
     <row r="389">
@@ -7692,7 +7656,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -7728,7 +7692,11 @@
           <t>ANJALI</t>
         </is>
       </c>
-      <c r="D394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E394" t="inlineStr"/>
     </row>
     <row r="395">
@@ -7745,10 +7713,14 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
+          <t>HS 313</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
           <t>HS 507</t>
         </is>
       </c>
-      <c r="E395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -7787,7 +7759,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -7840,7 +7812,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E400" t="inlineStr"/>
@@ -7859,12 +7831,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
+          <t>HS 512</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
           <t>HS 519</t>
-        </is>
-      </c>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>HS 645</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7869,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -8043,11 +8015,7 @@
           <t>Sachin Yadav</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>HS 591</t>
-        </is>
-      </c>
+      <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr"/>
     </row>
     <row r="412">
@@ -8081,11 +8049,7 @@
           <t>Savudam Sai Sathvik</t>
         </is>
       </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>HS 425</t>
-        </is>
-      </c>
+      <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr"/>
     </row>
     <row r="414">
@@ -8140,7 +8104,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 510</t>
         </is>
       </c>
       <c r="E416" t="inlineStr"/>
@@ -8195,7 +8159,11 @@
           <t>Aman</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr"/>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E419" t="inlineStr"/>
     </row>
     <row r="420">
@@ -8231,7 +8199,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 591</t>
         </is>
       </c>
       <c r="E421" t="inlineStr"/>
@@ -8303,7 +8271,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 211</t>
         </is>
       </c>
       <c r="E425" t="inlineStr"/>
@@ -8320,11 +8288,7 @@
           <t>Abhiraj Bhasin</t>
         </is>
       </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>HS 421</t>
-        </is>
-      </c>
+      <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr"/>
     </row>
     <row r="427">
@@ -8382,11 +8346,7 @@
           <t>HS 104</t>
         </is>
       </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>HS 223</t>
-        </is>
-      </c>
+      <c r="E429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -8476,7 +8436,11 @@
           <t>Bavaria Meetkumar</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr"/>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E434" t="inlineStr"/>
     </row>
     <row r="435">
@@ -8639,7 +8603,11 @@
           <t>Muhammad Yusuf Hassan</t>
         </is>
       </c>
-      <c r="D443" t="inlineStr"/>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E443" t="inlineStr"/>
     </row>
     <row r="444">
@@ -8673,7 +8641,11 @@
           <t>Ritika Pahwa</t>
         </is>
       </c>
-      <c r="D445" t="inlineStr"/>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>HS 104</t>
+        </is>
+      </c>
       <c r="E445" t="inlineStr"/>
     </row>
     <row r="446">
@@ -8769,11 +8741,7 @@
           <t>HS 421</t>
         </is>
       </c>
-      <c r="E450" t="inlineStr">
-        <is>
-          <t>HS 223</t>
-        </is>
-      </c>
+      <c r="E450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -8808,7 +8776,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>HS 512</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E452" t="inlineStr"/>
@@ -8825,7 +8793,11 @@
           <t>Arpit Kaushal</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr"/>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>HS 510</t>
+        </is>
+      </c>
       <c r="E453" t="inlineStr"/>
     </row>
     <row r="454">
@@ -8937,7 +8909,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E459" t="inlineStr"/>
@@ -9163,7 +9135,11 @@
           <t xml:space="preserve">S N Sai kumar </t>
         </is>
       </c>
-      <c r="D471" t="inlineStr"/>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E471" t="inlineStr"/>
     </row>
     <row r="472">
@@ -9218,7 +9194,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>HS 507</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -9258,7 +9234,11 @@
           <t>Shreyshi Singh</t>
         </is>
       </c>
-      <c r="D476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E476" t="inlineStr"/>
     </row>
     <row r="477">
@@ -9330,7 +9310,11 @@
           <t>SAI YASHVERDHAN</t>
         </is>
       </c>
-      <c r="D480" t="inlineStr"/>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E480" t="inlineStr"/>
     </row>
     <row r="481">
@@ -9427,7 +9411,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -9465,7 +9449,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -9482,11 +9466,7 @@
           <t>Ananthu JP</t>
         </is>
       </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>HS 104</t>
-        </is>
-      </c>
+      <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr"/>
     </row>
     <row r="489">
@@ -9539,7 +9519,11 @@
           <t>Satyam Kumar</t>
         </is>
       </c>
-      <c r="D491" t="inlineStr"/>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E491" t="inlineStr"/>
     </row>
     <row r="492">
@@ -9556,7 +9540,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>HS 591</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -9592,7 +9576,11 @@
           <t>Anushka Niti</t>
         </is>
       </c>
-      <c r="D494" t="inlineStr"/>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E494" t="inlineStr"/>
     </row>
     <row r="495">
@@ -9628,7 +9616,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>HS 223</t>
+          <t>HS 111</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -9666,7 +9654,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E498" t="inlineStr"/>
@@ -9801,7 +9789,11 @@
           <t>Ninad Shah</t>
         </is>
       </c>
-      <c r="D505" t="inlineStr"/>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E505" t="inlineStr"/>
     </row>
     <row r="506">
@@ -9837,7 +9829,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 223</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -9965,7 +9957,11 @@
           <t>Anusheel Kaula</t>
         </is>
       </c>
-      <c r="D513" t="inlineStr"/>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>HS 313</t>
+        </is>
+      </c>
       <c r="E513" t="inlineStr"/>
     </row>
     <row r="514">
@@ -10020,12 +10016,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>HS 111</t>
+          <t>HS 645</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>HS 645</t>
+          <t>HS 647</t>
         </is>
       </c>
     </row>
@@ -10083,7 +10079,11 @@
           <t>Khushbu Sureshbhai Patel</t>
         </is>
       </c>
-      <c r="D519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E519" t="inlineStr"/>
     </row>
     <row r="520">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>HS 112</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -10193,7 +10193,11 @@
           <t>Ashwani Rai</t>
         </is>
       </c>
-      <c r="D525" t="inlineStr"/>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>HS 111</t>
+        </is>
+      </c>
       <c r="E525" t="inlineStr"/>
     </row>
     <row r="526">
@@ -10229,7 +10233,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -10290,7 +10294,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>HS 112</t>
+          <t>HS 421</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -10328,7 +10332,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>HS 645</t>
+          <t>HS 211</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -10345,11 +10349,7 @@
           <t>Viraj Shah</t>
         </is>
       </c>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>HS 425</t>
-        </is>
-      </c>
+      <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr"/>
     </row>
     <row r="534">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 647</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -10402,7 +10402,11 @@
           <t>Mihir Chauhan</t>
         </is>
       </c>
-      <c r="D536" t="inlineStr"/>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E536" t="inlineStr"/>
     </row>
     <row r="537">
@@ -10499,7 +10503,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>HS 313</t>
+          <t>HS 223</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -10556,7 +10560,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>HS 211</t>
+          <t>HS 425</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -10573,7 +10577,11 @@
           <t>Laxmi Meena</t>
         </is>
       </c>
-      <c r="D545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>HS 211</t>
+        </is>
+      </c>
       <c r="E545" t="inlineStr"/>
     </row>
     <row r="546">
@@ -10590,7 +10598,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>HS 112</t>
+          <t>HS 223</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -10607,11 +10615,7 @@
           <t>HARSH MAHENDRAKUMAR PATEL</t>
         </is>
       </c>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr"/>
     </row>
     <row r="548">
@@ -10628,7 +10632,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>HS 223</t>
+          <t>HS 112</t>
         </is>
       </c>
       <c r="E548" t="inlineStr"/>
@@ -10688,11 +10692,7 @@
           <t>IN 304</t>
         </is>
       </c>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>HS 223</t>
-        </is>
-      </c>
+      <c r="E551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>HS 512</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E552" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>HS 421</t>
+          <t>HS 313</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -10769,10 +10769,14 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
+          <t>HS 313</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
           <t>HS 507</t>
         </is>
       </c>
-      <c r="E555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -10786,11 +10790,7 @@
           <t>Roopak Sharma</t>
         </is>
       </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>HS 313</t>
-        </is>
-      </c>
+      <c r="D556" t="inlineStr"/>
       <c r="E556" t="inlineStr"/>
     </row>
     <row r="557">
@@ -10824,7 +10824,11 @@
           <t>Paras Gupta</t>
         </is>
       </c>
-      <c r="D558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>HS 112</t>
+        </is>
+      </c>
       <c r="E558" t="inlineStr"/>
     </row>
     <row r="559">
@@ -10860,7 +10864,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>HS 211</t>
+          <t>HS 507</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
@@ -10916,7 +10920,11 @@
           <t>HS 421</t>
         </is>
       </c>
-      <c r="E563" t="inlineStr"/>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>HS 223</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -10935,7 +10943,11 @@
           <t>HS 421</t>
         </is>
       </c>
-      <c r="E564" t="inlineStr"/>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>HS 223</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -10954,11 +10966,7 @@
           <t>HS 421</t>
         </is>
       </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>HS 223</t>
-        </is>
-      </c>
+      <c r="E565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -10974,7 +10982,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>HS 211</t>
+          <t>HS 517</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
